--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.2257989020856</v>
+        <v>30.708183</v>
       </c>
       <c r="H2">
-        <v>10.2257989020856</v>
+        <v>92.124549</v>
       </c>
       <c r="I2">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981372</v>
       </c>
       <c r="J2">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981371</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N2">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O2">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P2">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q2">
-        <v>268.6381135821485</v>
+        <v>1914.689971713156</v>
       </c>
       <c r="R2">
-        <v>268.6381135821485</v>
+        <v>17232.2097454184</v>
       </c>
       <c r="S2">
-        <v>0.1519492060168767</v>
+        <v>0.3561806607041338</v>
       </c>
       <c r="T2">
-        <v>0.1519492060168767</v>
+        <v>0.3561806607041337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.2257989020856</v>
+        <v>30.708183</v>
       </c>
       <c r="H3">
-        <v>10.2257989020856</v>
+        <v>92.124549</v>
       </c>
       <c r="I3">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981372</v>
       </c>
       <c r="J3">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981371</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N3">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O3">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P3">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q3">
-        <v>7.25718741574199</v>
+        <v>26.294506093471</v>
       </c>
       <c r="R3">
-        <v>7.25718741574199</v>
+        <v>236.650554841239</v>
       </c>
       <c r="S3">
-        <v>0.004104867515012743</v>
+        <v>0.004891441795603897</v>
       </c>
       <c r="T3">
-        <v>0.004104867515012743</v>
+        <v>0.004891441795603896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.2257989020856</v>
+        <v>30.708183</v>
       </c>
       <c r="H4">
-        <v>10.2257989020856</v>
+        <v>92.124549</v>
       </c>
       <c r="I4">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981372</v>
       </c>
       <c r="J4">
-        <v>0.1650566176794205</v>
+        <v>0.3702499640981371</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N4">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O4">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P4">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q4">
-        <v>15.91601917922592</v>
+        <v>49.33664710904601</v>
       </c>
       <c r="R4">
-        <v>15.91601917922592</v>
+        <v>444.029823981414</v>
       </c>
       <c r="S4">
-        <v>0.009002544147531079</v>
+        <v>0.009177861598399447</v>
       </c>
       <c r="T4">
-        <v>0.009002544147531079</v>
+        <v>0.009177861598399445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.4447307751751</v>
+        <v>12.69729066666667</v>
       </c>
       <c r="H5">
-        <v>12.4447307751751</v>
+        <v>38.091872</v>
       </c>
       <c r="I5">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="J5">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N5">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O5">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P5">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q5">
-        <v>326.9308375308359</v>
+        <v>791.6904463997014</v>
       </c>
       <c r="R5">
-        <v>326.9308375308359</v>
+        <v>7125.214017597312</v>
       </c>
       <c r="S5">
-        <v>0.1849211957410952</v>
+        <v>0.1472744049625393</v>
       </c>
       <c r="T5">
-        <v>0.1849211957410952</v>
+        <v>0.1472744049625393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4447307751751</v>
+        <v>12.69729066666667</v>
       </c>
       <c r="H6">
-        <v>12.4447307751751</v>
+        <v>38.091872</v>
       </c>
       <c r="I6">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="J6">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N6">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O6">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P6">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q6">
-        <v>8.831949898357369</v>
+        <v>10.87231331157689</v>
       </c>
       <c r="R6">
-        <v>8.831949898357369</v>
+        <v>97.85081980419201</v>
       </c>
       <c r="S6">
-        <v>0.004995597075713743</v>
+        <v>0.002022524688545219</v>
       </c>
       <c r="T6">
-        <v>0.004995597075713743</v>
+        <v>0.002022524688545219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4447307751751</v>
+        <v>12.69729066666667</v>
       </c>
       <c r="H7">
-        <v>12.4447307751751</v>
+        <v>38.091872</v>
       </c>
       <c r="I7">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="J7">
-        <v>0.2008728305093556</v>
+        <v>0.1530918131325759</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N7">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O7">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P7">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q7">
-        <v>19.36969185435404</v>
+        <v>20.39983117406578</v>
       </c>
       <c r="R7">
-        <v>19.36969185435404</v>
+        <v>183.598480566592</v>
       </c>
       <c r="S7">
-        <v>0.0109560376925467</v>
+        <v>0.003794883481491422</v>
       </c>
       <c r="T7">
-        <v>0.0109560376925467</v>
+        <v>0.003794883481491422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.2827506325694</v>
+        <v>39.53358366666667</v>
       </c>
       <c r="H8">
-        <v>39.2827506325694</v>
+        <v>118.600751</v>
       </c>
       <c r="I8">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="J8">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N8">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O8">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P8">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q8">
-        <v>1031.982354366375</v>
+        <v>2464.963693633377</v>
       </c>
       <c r="R8">
-        <v>1031.982354366375</v>
+        <v>22184.6732427004</v>
       </c>
       <c r="S8">
-        <v>0.5837179887784103</v>
+        <v>0.4585454616574183</v>
       </c>
       <c r="T8">
-        <v>0.5837179887784103</v>
+        <v>0.4585454616574182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.2827506325694</v>
+        <v>39.53358366666667</v>
       </c>
       <c r="H9">
-        <v>39.2827506325694</v>
+        <v>118.600751</v>
       </c>
       <c r="I9">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="J9">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N9">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O9">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P9">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q9">
-        <v>27.87872969888636</v>
+        <v>33.85143486411789</v>
       </c>
       <c r="R9">
-        <v>27.87872969888636</v>
+        <v>304.662913777061</v>
       </c>
       <c r="S9">
-        <v>0.01576898670861722</v>
+        <v>0.006297221280631838</v>
       </c>
       <c r="T9">
-        <v>0.01576898670861722</v>
+        <v>0.006297221280631838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.2827506325694</v>
+        <v>39.53358366666667</v>
       </c>
       <c r="H10">
-        <v>39.2827506325694</v>
+        <v>118.600751</v>
       </c>
       <c r="I10">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="J10">
-        <v>0.6340705518112238</v>
+        <v>0.476658222769287</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N10">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O10">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P10">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q10">
-        <v>61.1419233320935</v>
+        <v>63.51578881493177</v>
       </c>
       <c r="R10">
-        <v>61.1419233320935</v>
+        <v>571.6420993343861</v>
       </c>
       <c r="S10">
-        <v>0.03458357632419633</v>
+        <v>0.01181553983123689</v>
       </c>
       <c r="T10">
-        <v>0.03458357632419633</v>
+        <v>0.01181553983123689</v>
       </c>
     </row>
   </sheetData>
